--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,17 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation resource for Blood Pressure
-- Used only with Blood-Pressure
-- Should be based on US-Core for Vital-Signs Observation Resource
-- status of `final`
-- category code of `vital-signs`
-- code should be LOINC if available
-  - [Concept Map from VitalSignTO.type.name to LOINC code](ConceptMap-ObservationTypeTOVsLoincCode.html)
-- patient
-- Not preserving the VitalSignTO.low and .high as they are referenceRange
-- Blood Pressure in the mock examples is triple recorded: First with both values, Second with just Systolic, Third with Diastolic. There only seems to be a nearness relationship. Note that only the first one has a type.id. So I recommend we use only the first, and split the values out. Note no pulse is recorded.
-  - Blood Pressure is recorded with `.component` rather than `.value[x]`</t>
+    <t>A profile on the Observation resource for Blood Pressure</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1299,9 +1289,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>VitalSignTO.value1 and VitalSignTO.units</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1822,7 +1809,7 @@
     <t>outBoundRelationship[typeCode=COMP]</t>
   </si>
   <si>
-    <t>For BP is used for value1</t>
+    <t>For BP is used for value1 parsed out to systolic and diastolic</t>
   </si>
   <si>
     <t>Observation.component.id</t>
@@ -8119,7 +8106,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -8471,15 +8458,15 @@
         <v>407</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8505,16 +8492,16 @@
         <v>148</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8542,11 +8529,11 @@
         <v>153</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
       </c>
@@ -8563,7 +8550,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8572,7 +8559,7 @@
         <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>62</v>
@@ -8587,7 +8574,7 @@
         <v>93</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8601,14 +8588,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8630,16 +8617,16 @@
         <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8667,11 +8654,11 @@
         <v>153</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
       </c>
@@ -8688,7 +8675,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8706,19 +8693,19 @@
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>40</v>
@@ -8726,10 +8713,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8752,19 +8739,19 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8813,7 +8800,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8834,10 +8821,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8851,10 +8838,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8972,10 +8959,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9095,10 +9082,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9121,16 +9108,16 @@
         <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9180,7 +9167,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -9204,7 +9191,7 @@
         <v>93</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9218,10 +9205,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9247,10 +9234,10 @@
         <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9301,7 +9288,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9325,7 +9312,7 @@
         <v>93</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9339,10 +9326,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9365,13 +9352,13 @@
         <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9422,7 +9409,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>50</v>
@@ -9446,24 +9433,24 @@
         <v>93</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9489,13 +9476,13 @@
         <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9521,14 +9508,14 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
       </c>
@@ -9545,7 +9532,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9563,19 +9550,19 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9583,10 +9570,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9612,16 +9599,16 @@
         <v>148</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9646,14 +9633,14 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
       </c>
@@ -9670,7 +9657,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9691,10 +9678,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9708,10 +9695,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9734,16 +9721,16 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9793,7 +9780,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9811,19 +9798,19 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>40</v>
@@ -9831,10 +9818,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9857,16 +9844,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9916,7 +9903,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9934,19 +9921,19 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>40</v>
@@ -9954,10 +9941,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9980,19 +9967,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -10041,7 +10028,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -10053,19 +10040,19 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -10079,10 +10066,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10200,10 +10187,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10323,14 +10310,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10352,10 +10339,10 @@
         <v>96</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>99</v>
@@ -10410,7 +10397,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10448,10 +10435,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10474,13 +10461,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10531,7 +10518,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10540,7 +10527,7 @@
         <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>62</v>
@@ -10552,10 +10539,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10569,10 +10556,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10595,13 +10582,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10652,7 +10639,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10661,7 +10648,7 @@
         <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>62</v>
@@ -10673,10 +10660,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10690,10 +10677,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10719,16 +10706,16 @@
         <v>148</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10756,11 +10743,11 @@
         <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
       </c>
@@ -10777,7 +10764,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10795,13 +10782,13 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM67" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AN67" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
@@ -10815,10 +10802,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10844,16 +10831,16 @@
         <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10878,14 +10865,14 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
       </c>
@@ -10902,7 +10889,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10920,13 +10907,13 @@
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM68" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10940,10 +10927,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10966,17 +10953,17 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -11025,7 +11012,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -11049,7 +11036,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -11063,10 +11050,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11092,10 +11079,10 @@
         <v>123</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -11146,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -11167,10 +11154,10 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -11184,10 +11171,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11210,16 +11197,16 @@
         <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11269,7 +11256,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11290,10 +11277,10 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11307,10 +11294,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11333,16 +11320,16 @@
         <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11392,7 +11379,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11413,10 +11400,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11430,10 +11417,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11441,10 +11428,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>51</v>
@@ -11456,19 +11443,19 @@
         <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -11505,7 +11492,7 @@
         <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
@@ -11515,7 +11502,7 @@
         <v>113</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11527,36 +11514,36 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11674,10 +11661,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11797,14 +11784,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11826,10 +11813,10 @@
         <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>99</v>
@@ -11884,7 +11871,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11922,10 +11909,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11951,16 +11938,16 @@
         <v>148</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -12009,7 +11996,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>50</v>
@@ -12027,7 +12014,7 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>322</v>
@@ -12047,10 +12034,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12076,13 +12063,13 @@
         <v>396</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>400</v>
@@ -12134,7 +12121,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12143,7 +12130,7 @@
         <v>50</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>62</v>
@@ -12152,7 +12139,7 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>405</v>
@@ -12172,10 +12159,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12201,16 +12188,16 @@
         <v>148</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="O79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -12238,11 +12225,11 @@
         <v>153</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
       </c>
@@ -12259,7 +12246,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12268,7 +12255,7 @@
         <v>50</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>62</v>
@@ -12283,7 +12270,7 @@
         <v>93</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12297,14 +12284,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12326,16 +12313,16 @@
         <v>148</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12363,11 +12350,11 @@
         <v>153</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
       </c>
@@ -12384,7 +12371,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12402,19 +12389,19 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>40</v>
@@ -12422,10 +12409,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12451,16 +12438,16 @@
         <v>41</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="N81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -12509,7 +12496,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12530,10 +12517,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -12547,13 +12534,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>40</v>
@@ -12575,19 +12562,19 @@
         <v>51</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M82" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>40</v>
@@ -12636,7 +12623,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12648,19 +12635,19 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12674,10 +12661,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12795,10 +12782,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12918,14 +12905,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12947,10 +12934,10 @@
         <v>96</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>99</v>
@@ -13005,7 +12992,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -13043,10 +13030,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13072,16 +13059,16 @@
         <v>148</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M86" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -13091,7 +13078,7 @@
         <v>40</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>40</v>
@@ -13130,7 +13117,7 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>50</v>
@@ -13148,7 +13135,7 @@
         <v>40</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>322</v>
@@ -13168,10 +13155,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13194,16 +13181,16 @@
         <v>51</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>400</v>
@@ -13255,7 +13242,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -13264,7 +13251,7 @@
         <v>50</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>62</v>
@@ -13273,7 +13260,7 @@
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>405</v>
@@ -13293,10 +13280,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13414,10 +13401,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13537,10 +13524,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13563,19 +13550,19 @@
         <v>51</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>40</v>
@@ -13624,7 +13611,7 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -13645,10 +13632,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -13662,10 +13649,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13691,20 +13678,20 @@
         <v>70</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q91" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q91" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>40</v>
@@ -13728,28 +13715,28 @@
         <v>141</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13770,10 +13757,10 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>40</v>
@@ -13787,10 +13774,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13816,14 +13803,14 @@
         <v>123</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>40</v>
@@ -13872,7 +13859,7 @@
         <v>40</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
@@ -13893,10 +13880,10 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>40</v>
@@ -13910,10 +13897,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13939,63 +13926,63 @@
         <v>64</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
@@ -14004,7 +13991,7 @@
         <v>50</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>62</v>
@@ -14016,10 +14003,10 @@
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>40</v>
@@ -14033,10 +14020,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14062,65 +14049,65 @@
         <v>70</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -14141,10 +14128,10 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>40</v>
@@ -14158,10 +14145,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14187,16 +14174,16 @@
         <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="O95" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>40</v>
@@ -14224,11 +14211,11 @@
         <v>153</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>40</v>
       </c>
@@ -14245,7 +14232,7 @@
         <v>40</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -14254,7 +14241,7 @@
         <v>50</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>62</v>
@@ -14269,7 +14256,7 @@
         <v>93</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>40</v>
@@ -14283,14 +14270,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14312,16 +14299,16 @@
         <v>148</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>40</v>
@@ -14349,11 +14336,11 @@
         <v>153</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z96" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA96" t="s" s="2">
         <v>40</v>
       </c>
@@ -14370,7 +14357,7 @@
         <v>40</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -14388,19 +14375,19 @@
         <v>40</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AQ96" t="s" s="2">
         <v>40</v>
@@ -14408,10 +14395,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14437,16 +14424,16 @@
         <v>41</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="N97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O97" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>40</v>
@@ -14495,7 +14482,7 @@
         <v>40</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
@@ -14516,10 +14503,10 @@
         <v>40</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>40</v>
@@ -14533,13 +14520,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>40</v>
@@ -14561,19 +14548,19 @@
         <v>51</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M98" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>40</v>
@@ -14622,7 +14609,7 @@
         <v>40</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
@@ -14634,19 +14621,19 @@
         <v>40</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>40</v>
@@ -14660,10 +14647,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14781,10 +14768,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14904,14 +14891,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14933,10 +14920,10 @@
         <v>96</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>99</v>
@@ -14991,7 +14978,7 @@
         <v>40</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
@@ -15029,10 +15016,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15058,16 +15045,16 @@
         <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>40</v>
@@ -15077,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>40</v>
@@ -15116,7 +15103,7 @@
         <v>40</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>50</v>
@@ -15134,7 +15121,7 @@
         <v>40</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>322</v>
@@ -15154,10 +15141,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15180,16 +15167,16 @@
         <v>51</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>400</v>
@@ -15241,7 +15228,7 @@
         <v>40</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
@@ -15250,7 +15237,7 @@
         <v>50</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>62</v>
@@ -15259,7 +15246,7 @@
         <v>40</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>405</v>
@@ -15279,10 +15266,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15400,10 +15387,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15523,10 +15510,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15549,19 +15536,19 @@
         <v>51</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>40</v>
@@ -15610,7 +15597,7 @@
         <v>40</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>38</v>
@@ -15631,10 +15618,10 @@
         <v>40</v>
       </c>
       <c r="AM106" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>40</v>
@@ -15648,10 +15635,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15677,20 +15664,20 @@
         <v>70</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q107" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q107" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>40</v>
@@ -15714,28 +15701,28 @@
         <v>141</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="Z107" t="s" s="2">
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF107" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>38</v>
@@ -15756,10 +15743,10 @@
         <v>40</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>40</v>
@@ -15773,10 +15760,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15802,14 +15789,14 @@
         <v>123</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>40</v>
@@ -15858,7 +15845,7 @@
         <v>40</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>38</v>
@@ -15879,10 +15866,10 @@
         <v>40</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>40</v>
@@ -15896,10 +15883,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15925,63 +15912,63 @@
         <v>64</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF109" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>38</v>
@@ -15990,7 +15977,7 @@
         <v>50</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>62</v>
@@ -16002,10 +15989,10 @@
         <v>40</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>40</v>
@@ -16019,10 +16006,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16048,65 +16035,65 @@
         <v>70</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>38</v>
@@ -16127,10 +16114,10 @@
         <v>40</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>40</v>
@@ -16144,10 +16131,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16173,16 +16160,16 @@
         <v>148</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="O111" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>40</v>
@@ -16210,11 +16197,11 @@
         <v>153</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z111" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA111" t="s" s="2">
         <v>40</v>
       </c>
@@ -16231,7 +16218,7 @@
         <v>40</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>38</v>
@@ -16240,7 +16227,7 @@
         <v>50</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>62</v>
@@ -16255,7 +16242,7 @@
         <v>93</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>40</v>
@@ -16269,14 +16256,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16298,16 +16285,16 @@
         <v>148</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>40</v>
@@ -16335,11 +16322,11 @@
         <v>153</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z112" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA112" t="s" s="2">
         <v>40</v>
       </c>
@@ -16356,7 +16343,7 @@
         <v>40</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>38</v>
@@ -16374,19 +16361,19 @@
         <v>40</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN112" t="s" s="2">
+      <c r="AO112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>40</v>
@@ -16394,10 +16381,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16423,16 +16410,16 @@
         <v>41</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M113" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="N113" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>40</v>
@@ -16481,7 +16468,7 @@
         <v>40</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>38</v>
@@ -16502,10 +16489,10 @@
         <v>40</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.vitalsBP</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.vitalsBP</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2632,19 +2636,19 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>40</v>
@@ -2653,15 +2657,15 @@
         <v>40</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2672,7 +2676,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2681,19 +2685,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2743,13 +2747,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2781,10 +2785,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2795,7 +2799,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2804,16 +2808,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2864,19 +2868,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2902,10 +2906,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2916,28 +2920,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2987,19 +2991,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -3025,10 +3029,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3039,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -3051,16 +3055,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3086,13 +3090,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -3110,19 +3114,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -3148,21 +3152,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -3174,16 +3178,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3233,19 +3237,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -3257,7 +3261,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -3271,14 +3275,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3297,16 +3301,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3356,7 +3360,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3380,7 +3384,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -3394,14 +3398,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3420,16 +3424,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3479,7 +3483,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3491,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3503,7 +3507,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -3517,14 +3521,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3537,25 +3541,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -3604,7 +3608,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3616,7 +3620,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3628,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -3642,10 +3646,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3653,7 +3657,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3665,20 +3669,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3715,17 +3719,17 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3737,46 +3741,46 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -3788,20 +3792,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3850,7 +3854,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3862,22 +3866,22 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>40</v>
@@ -3888,10 +3892,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3902,7 +3906,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3914,13 +3918,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3971,13 +3975,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -3995,7 +3999,7 @@
         <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -4009,14 +4013,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -4035,16 +4039,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4082,19 +4086,19 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -4106,7 +4110,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -4118,7 +4122,7 @@
         <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>40</v>
@@ -4132,10 +4136,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4143,34 +4147,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -4180,7 +4184,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -4195,13 +4199,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -4219,19 +4223,19 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -4240,10 +4244,10 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
@@ -4257,10 +4261,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4271,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -4280,22 +4284,22 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -4320,13 +4324,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -4344,19 +4348,19 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -4365,10 +4369,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>40</v>
@@ -4382,10 +4386,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4396,7 +4400,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -4405,22 +4409,22 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -4433,7 +4437,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -4469,19 +4473,19 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -4490,10 +4494,10 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
@@ -4507,10 +4511,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4521,7 +4525,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -4530,19 +4534,19 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4556,7 +4560,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -4592,19 +4596,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -4613,10 +4617,10 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4630,10 +4634,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4644,7 +4648,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4653,16 +4657,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4713,19 +4717,19 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4734,10 +4738,10 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4751,10 +4755,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4765,7 +4769,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4774,19 +4778,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4836,19 +4840,19 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -4857,10 +4861,10 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4874,14 +4878,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4897,20 +4901,20 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4959,7 +4963,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4971,19 +4975,19 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4997,14 +5001,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -5020,19 +5024,19 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5082,7 +5086,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -5094,19 +5098,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -5120,10 +5124,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5131,34 +5135,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -5168,7 +5172,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -5183,11 +5187,11 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -5205,48 +5209,48 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5254,13 +5258,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
@@ -5269,19 +5273,19 @@
         <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -5306,29 +5310,29 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5340,7 +5344,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -5352,40 +5356,40 @@
         <v>40</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
@@ -5394,19 +5398,19 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -5431,13 +5435,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -5455,7 +5459,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5467,7 +5471,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -5479,10 +5483,10 @@
         <v>40</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>40</v>
@@ -5493,10 +5497,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5507,7 +5511,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -5519,13 +5523,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5576,13 +5580,13 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -5600,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>40</v>
@@ -5614,14 +5618,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5640,16 +5644,16 @@
         <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5687,19 +5691,19 @@
         <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5711,7 +5715,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -5723,7 +5727,7 @@
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5737,10 +5741,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5748,34 +5752,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5824,7 +5828,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5836,7 +5840,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -5845,10 +5849,10 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5862,10 +5866,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5876,7 +5880,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -5888,13 +5892,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5945,13 +5949,13 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
@@ -5969,7 +5973,7 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5983,14 +5987,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -6009,16 +6013,16 @@
         <v>40</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6056,19 +6060,19 @@
         <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -6080,7 +6084,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -6092,7 +6096,7 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -6106,10 +6110,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6117,41 +6121,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>40</v>
@@ -6193,19 +6197,19 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -6214,10 +6218,10 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -6231,10 +6235,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6245,7 +6249,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -6254,19 +6258,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6316,19 +6320,19 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -6337,10 +6341,10 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -6354,10 +6358,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6365,39 +6369,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>40</v>
@@ -6439,19 +6443,19 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -6460,10 +6464,10 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>40</v>
@@ -6477,10 +6481,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6491,7 +6495,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -6500,20 +6504,20 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6562,19 +6566,19 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -6583,10 +6587,10 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
@@ -6600,10 +6604,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6614,7 +6618,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -6623,22 +6627,22 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6687,19 +6691,19 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -6708,10 +6712,10 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
@@ -6725,10 +6729,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6739,7 +6743,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6748,22 +6752,22 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6812,19 +6816,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6833,10 +6837,10 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6850,45 +6854,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6898,7 +6902,7 @@
         <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>40</v>
@@ -6913,13 +6917,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6937,48 +6941,48 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6989,7 +6993,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -7001,13 +7005,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7058,13 +7062,13 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -7082,7 +7086,7 @@
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -7096,14 +7100,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7122,16 +7126,16 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7169,19 +7173,19 @@
         <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -7193,7 +7197,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -7205,7 +7209,7 @@
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -7219,10 +7223,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7236,28 +7240,28 @@
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -7306,7 +7310,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -7318,7 +7322,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -7327,10 +7331,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -7344,10 +7348,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7358,31 +7362,31 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -7431,19 +7435,19 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -7452,10 +7456,10 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -7469,10 +7473,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7480,34 +7484,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7556,48 +7560,48 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7617,19 +7621,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7679,7 +7683,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7691,7 +7695,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -7700,13 +7704,13 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
@@ -7717,14 +7721,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7740,22 +7744,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7804,34 +7808,34 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
@@ -7842,45 +7846,45 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7917,44 +7921,44 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
@@ -7965,47 +7969,47 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -8054,48 +8058,48 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8115,19 +8119,19 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8177,19 +8181,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -8198,13 +8202,13 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
@@ -8215,10 +8219,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8232,26 +8236,26 @@
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8300,7 +8304,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8312,36 +8316,36 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8355,28 +8359,28 @@
         <v>38</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8401,13 +8405,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8425,37 +8429,37 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>40</v>
@@ -8463,10 +8467,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8480,7 +8484,7 @@
         <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>40</v>
@@ -8489,19 +8493,19 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8526,13 +8530,13 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
@@ -8550,19 +8554,19 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -8571,10 +8575,10 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8588,14 +8592,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8614,19 +8618,19 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8651,13 +8655,13 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8675,7 +8679,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8687,25 +8691,25 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>40</v>
@@ -8713,10 +8717,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8730,7 +8734,7 @@
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -8739,19 +8743,19 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8800,7 +8804,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8812,7 +8816,7 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8821,10 +8825,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8838,10 +8842,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8852,7 +8856,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -8864,13 +8868,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8921,13 +8925,13 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
@@ -8945,7 +8949,7 @@
         <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8959,14 +8963,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8985,16 +8989,16 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -9032,19 +9036,19 @@
         <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -9056,7 +9060,7 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -9068,7 +9072,7 @@
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -9082,10 +9086,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9096,7 +9100,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -9105,19 +9109,19 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9167,19 +9171,19 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -9188,10 +9192,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9205,10 +9209,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9219,7 +9223,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -9228,16 +9232,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9288,19 +9292,19 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -9309,10 +9313,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9326,10 +9330,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9337,10 +9341,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -9349,16 +9353,16 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9409,19 +9413,19 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -9430,10 +9434,10 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9442,15 +9446,15 @@
         <v>40</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9473,16 +9477,16 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9508,13 +9512,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9532,37 +9536,37 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9570,10 +9574,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9596,19 +9600,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9633,13 +9637,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9657,19 +9661,19 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -9678,10 +9682,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9695,10 +9699,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9721,16 +9725,16 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9780,37 +9784,37 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>40</v>
@@ -9818,10 +9822,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9844,16 +9848,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9903,37 +9907,37 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>40</v>
@@ -9941,10 +9945,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9967,19 +9971,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -10028,7 +10032,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -10040,7 +10044,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -10049,10 +10053,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -10066,10 +10070,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10080,7 +10084,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -10092,13 +10096,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10149,13 +10153,13 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
@@ -10173,7 +10177,7 @@
         <v>40</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10187,14 +10191,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10213,16 +10217,16 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10272,7 +10276,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -10284,7 +10288,7 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -10296,7 +10300,7 @@
         <v>40</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10310,14 +10314,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10330,25 +10334,25 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>40</v>
@@ -10397,7 +10401,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10409,7 +10413,7 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
@@ -10421,7 +10425,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -10435,10 +10439,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10449,7 +10453,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -10461,13 +10465,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10518,19 +10522,19 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -10539,10 +10543,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10556,10 +10560,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10570,7 +10574,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -10582,13 +10586,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10639,19 +10643,19 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -10660,10 +10664,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10677,10 +10681,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10691,7 +10695,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -10703,19 +10707,19 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10740,13 +10744,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10764,31 +10768,31 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
@@ -10802,10 +10806,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10828,19 +10832,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10865,13 +10869,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10889,7 +10893,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10901,19 +10905,19 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10927,10 +10931,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10941,7 +10945,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10953,17 +10957,17 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -11012,19 +11016,19 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>40</v>
@@ -11036,7 +11040,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -11050,10 +11054,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11064,7 +11068,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -11076,13 +11080,13 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -11133,19 +11137,19 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -11154,10 +11158,10 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -11171,10 +11175,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11194,19 +11198,19 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11256,7 +11260,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11268,7 +11272,7 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -11277,10 +11281,10 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11294,10 +11298,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11317,19 +11321,19 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11379,7 +11383,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11391,7 +11395,7 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -11400,10 +11404,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11417,10 +11421,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11428,34 +11432,34 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -11492,17 +11496,17 @@
         <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11514,7 +11518,7 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11523,10 +11527,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11535,15 +11539,15 @@
         <v>40</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11554,7 +11558,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -11566,13 +11570,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11623,13 +11627,13 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
@@ -11647,7 +11651,7 @@
         <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11661,14 +11665,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11687,16 +11691,16 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11746,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11758,7 +11762,7 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
@@ -11770,7 +11774,7 @@
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11784,14 +11788,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11804,25 +11808,25 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11871,7 +11875,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11883,7 +11887,7 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11895,7 +11899,7 @@
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11909,10 +11913,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11920,34 +11924,34 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11972,13 +11976,13 @@
         <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>40</v>
@@ -11996,34 +12000,34 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>40</v>
@@ -12034,10 +12038,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12048,31 +12052,31 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -12097,13 +12101,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -12121,37 +12125,37 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>40</v>
@@ -12159,10 +12163,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12173,10 +12177,10 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>40</v>
@@ -12185,19 +12189,19 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -12222,13 +12226,13 @@
         <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -12246,19 +12250,19 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -12267,10 +12271,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12284,14 +12288,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12310,19 +12314,19 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12347,13 +12351,13 @@
         <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
@@ -12371,7 +12375,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12383,25 +12387,25 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>40</v>
@@ -12409,10 +12413,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12438,16 +12442,16 @@
         <v>41</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -12496,7 +12500,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12508,7 +12512,7 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>40</v>
@@ -12517,10 +12521,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -12534,47 +12538,47 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>40</v>
@@ -12623,7 +12627,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12635,7 +12639,7 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>40</v>
@@ -12644,10 +12648,10 @@
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12661,10 +12665,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12675,7 +12679,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -12687,13 +12691,13 @@
         <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12744,13 +12748,13 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>40</v>
@@ -12768,7 +12772,7 @@
         <v>40</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>40</v>
@@ -12782,14 +12786,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12808,16 +12812,16 @@
         <v>40</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12867,7 +12871,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12879,7 +12883,7 @@
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>40</v>
@@ -12891,7 +12895,7 @@
         <v>40</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>40</v>
@@ -12905,14 +12909,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12925,25 +12929,25 @@
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -12992,7 +12996,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -13004,7 +13008,7 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
@@ -13016,7 +13020,7 @@
         <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
@@ -13030,10 +13034,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13041,34 +13045,34 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -13078,7 +13082,7 @@
         <v>40</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>40</v>
@@ -13093,13 +13097,13 @@
         <v>40</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -13117,34 +13121,34 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>40</v>
@@ -13155,10 +13159,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13169,31 +13173,31 @@
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13218,13 +13222,13 @@
         <v>40</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13242,37 +13246,37 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>40</v>
@@ -13280,10 +13284,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13294,7 +13298,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
@@ -13306,13 +13310,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13363,13 +13367,13 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>40</v>
@@ -13387,7 +13391,7 @@
         <v>40</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -13401,14 +13405,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13427,16 +13431,16 @@
         <v>40</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13474,19 +13478,19 @@
         <v>40</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -13498,7 +13502,7 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>40</v>
@@ -13510,7 +13514,7 @@
         <v>40</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>40</v>
@@ -13524,10 +13528,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13535,34 +13539,34 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>40</v>
@@ -13611,19 +13615,19 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>40</v>
@@ -13632,10 +13636,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -13649,10 +13653,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13663,35 +13667,35 @@
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q91" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>40</v>
@@ -13712,13 +13716,13 @@
         <v>40</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>40</v>
@@ -13736,19 +13740,19 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>40</v>
@@ -13757,10 +13761,10 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>40</v>
@@ -13774,10 +13778,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13785,32 +13789,32 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>40</v>
@@ -13859,19 +13863,19 @@
         <v>40</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>40</v>
@@ -13880,10 +13884,10 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>40</v>
@@ -13897,10 +13901,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13908,39 +13912,39 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>40</v>
@@ -13982,19 +13986,19 @@
         <v>40</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>40</v>
@@ -14003,10 +14007,10 @@
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>40</v>
@@ -14020,10 +14024,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14031,41 +14035,41 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>40</v>
@@ -14107,19 +14111,19 @@
         <v>40</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>40</v>
@@ -14128,10 +14132,10 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>40</v>
@@ -14145,10 +14149,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14159,10 +14163,10 @@
         <v>38</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>40</v>
@@ -14171,19 +14175,19 @@
         <v>40</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>40</v>
@@ -14208,13 +14212,13 @@
         <v>40</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>40</v>
@@ -14232,19 +14236,19 @@
         <v>40</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>40</v>
@@ -14253,10 +14257,10 @@
         <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>40</v>
@@ -14270,14 +14274,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14296,19 +14300,19 @@
         <v>40</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>40</v>
@@ -14333,13 +14337,13 @@
         <v>40</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>40</v>
@@ -14357,7 +14361,7 @@
         <v>40</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -14369,25 +14373,25 @@
         <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ96" t="s" s="2">
         <v>40</v>
@@ -14395,10 +14399,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14424,16 +14428,16 @@
         <v>41</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>40</v>
@@ -14482,7 +14486,7 @@
         <v>40</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
@@ -14494,7 +14498,7 @@
         <v>40</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>40</v>
@@ -14503,10 +14507,10 @@
         <v>40</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>40</v>
@@ -14520,47 +14524,47 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>40</v>
@@ -14609,7 +14613,7 @@
         <v>40</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
@@ -14621,7 +14625,7 @@
         <v>40</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>40</v>
@@ -14630,10 +14634,10 @@
         <v>40</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>40</v>
@@ -14647,10 +14651,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14661,7 +14665,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>40</v>
@@ -14673,13 +14677,13 @@
         <v>40</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14730,13 +14734,13 @@
         <v>40</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>40</v>
@@ -14754,7 +14758,7 @@
         <v>40</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>40</v>
@@ -14768,14 +14772,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14794,16 +14798,16 @@
         <v>40</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14853,7 +14857,7 @@
         <v>40</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
@@ -14865,7 +14869,7 @@
         <v>40</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>40</v>
@@ -14877,7 +14881,7 @@
         <v>40</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>40</v>
@@ -14891,14 +14895,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14911,25 +14915,25 @@
         <v>40</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>40</v>
@@ -14978,7 +14982,7 @@
         <v>40</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
@@ -14990,7 +14994,7 @@
         <v>40</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>40</v>
@@ -15002,7 +15006,7 @@
         <v>40</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>40</v>
@@ -15016,10 +15020,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15027,34 +15031,34 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>40</v>
@@ -15064,7 +15068,7 @@
         <v>40</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>40</v>
@@ -15079,13 +15083,13 @@
         <v>40</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>40</v>
@@ -15103,34 +15107,34 @@
         <v>40</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>40</v>
@@ -15141,10 +15145,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15155,31 +15159,31 @@
         <v>38</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>40</v>
@@ -15204,13 +15208,13 @@
         <v>40</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>40</v>
@@ -15228,37 +15232,37 @@
         <v>40</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ103" t="s" s="2">
         <v>40</v>
@@ -15266,10 +15270,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15280,7 +15284,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>40</v>
@@ -15292,13 +15296,13 @@
         <v>40</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15349,13 +15353,13 @@
         <v>40</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>40</v>
@@ -15373,7 +15377,7 @@
         <v>40</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>40</v>
@@ -15387,14 +15391,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15413,16 +15417,16 @@
         <v>40</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15460,19 +15464,19 @@
         <v>40</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>38</v>
@@ -15484,7 +15488,7 @@
         <v>40</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>40</v>
@@ -15496,7 +15500,7 @@
         <v>40</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>40</v>
@@ -15510,10 +15514,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15521,34 +15525,34 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>40</v>
@@ -15597,19 +15601,19 @@
         <v>40</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>40</v>
@@ -15618,10 +15622,10 @@
         <v>40</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>40</v>
@@ -15635,10 +15639,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15649,35 +15653,35 @@
         <v>38</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q107" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>40</v>
@@ -15698,13 +15702,13 @@
         <v>40</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>40</v>
@@ -15722,19 +15726,19 @@
         <v>40</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>40</v>
@@ -15743,10 +15747,10 @@
         <v>40</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>40</v>
@@ -15760,10 +15764,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15771,32 +15775,32 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>40</v>
@@ -15845,19 +15849,19 @@
         <v>40</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>40</v>
@@ -15866,10 +15870,10 @@
         <v>40</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>40</v>
@@ -15883,10 +15887,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15894,39 +15898,39 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>40</v>
@@ -15968,19 +15972,19 @@
         <v>40</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>40</v>
@@ -15989,10 +15993,10 @@
         <v>40</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>40</v>
@@ -16006,10 +16010,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16017,41 +16021,41 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>40</v>
@@ -16093,19 +16097,19 @@
         <v>40</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>40</v>
@@ -16114,10 +16118,10 @@
         <v>40</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>40</v>
@@ -16131,10 +16135,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16145,10 +16149,10 @@
         <v>38</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>40</v>
@@ -16157,19 +16161,19 @@
         <v>40</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>40</v>
@@ -16194,13 +16198,13 @@
         <v>40</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>40</v>
@@ -16218,19 +16222,19 @@
         <v>40</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>40</v>
@@ -16239,10 +16243,10 @@
         <v>40</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>40</v>
@@ -16256,14 +16260,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16282,19 +16286,19 @@
         <v>40</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>40</v>
@@ -16319,13 +16323,13 @@
         <v>40</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>40</v>
@@ -16343,7 +16347,7 @@
         <v>40</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>38</v>
@@ -16355,25 +16359,25 @@
         <v>40</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>40</v>
@@ -16381,10 +16385,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16410,16 +16414,16 @@
         <v>41</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>40</v>
@@ -16468,7 +16472,7 @@
         <v>40</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>38</v>
@@ -16480,7 +16484,7 @@
         <v>40</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>40</v>
@@ -16489,10 +16493,10 @@
         <v>40</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11435,7 +11435,7 @@
         <v>564</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>564</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>52</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="738">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -556,7 +556,7 @@
     <t>Observation.identifier.value</t>
   </si>
   <si>
-    <t>`VitalSignTO` | `.` | {VitalSignTO.id}</t>
+    <t>`VitalSignTO` | `.` | {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -1036,19 +1036,22 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
     <t>VitalSignTO.type.name convert to LOINC using ObservationTypeTOVsLoincCode</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>VitalSignTO.type.name</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1226,7 +1229,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1252,6 +1255,177 @@
   </si>
   <si>
     <t>VitalSignTO.recorder and VitalSignTO.observer</t>
+  </si>
+  <si>
+    <t>Observation.performer.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Alternative reference (target type is wrong)</t>
+  </si>
+  <si>
+    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
+  </si>
+  <si>
+    <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
+  </si>
+  <si>
+    <t>Organization(VitalSignTO.location)</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.url</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -2485,7 +2659,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ113"/>
+  <dimension ref="A1:AQ124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6974,15 +7148,15 @@
         <v>326</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7100,10 +7274,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7223,10 +7397,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7343,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -7468,15 +7642,15 @@
         <v>40</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7499,19 +7673,19 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7560,7 +7734,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7575,33 +7749,33 @@
         <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7624,16 +7798,16 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7683,7 +7857,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7707,10 +7881,10 @@
         <v>323</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
@@ -7721,14 +7895,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7747,19 +7921,19 @@
         <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7808,7 +7982,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7823,19 +7997,19 @@
         <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
@@ -7846,14 +8020,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7872,19 +8046,19 @@
         <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7921,17 +8095,17 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7940,25 +8114,25 @@
         <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
@@ -7969,16 +8143,16 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7997,19 +8171,19 @@
         <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -8058,7 +8232,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -8067,39 +8241,39 @@
         <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8122,16 +8296,16 @@
         <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8181,7 +8355,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -8202,13 +8376,13 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
@@ -8219,10 +8393,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8245,17 +8419,17 @@
         <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8304,7 +8478,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8319,33 +8493,33 @@
         <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8356,32 +8530,28 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>124</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>40</v>
       </c>
@@ -8405,13 +8575,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8429,7 +8599,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8438,28 +8608,28 @@
         <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>128</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>40</v>
@@ -8467,24 +8637,24 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>40</v>
@@ -8493,20 +8663,18 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>98</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>131</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>40</v>
       </c>
@@ -8530,43 +8698,43 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>416</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -8575,10 +8743,10 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8592,21 +8760,23 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -8618,20 +8788,18 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
@@ -8655,13 +8823,13 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8679,7 +8847,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>134</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8691,36 +8859,36 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>40</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8731,10 +8899,10 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -8743,20 +8911,16 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>431</v>
+        <v>53</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
@@ -8804,19 +8968,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>430</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8825,10 +8989,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>436</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>437</v>
+        <v>128</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8842,10 +9006,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8856,7 +9020,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -8868,13 +9032,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8913,31 +9077,31 @@
         <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8949,7 +9113,7 @@
         <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8963,21 +9127,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -8989,16 +9153,16 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -9006,7 +9170,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>40</v>
@@ -9036,31 +9200,31 @@
         <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -9072,7 +9236,7 @@
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -9086,10 +9250,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9097,7 +9261,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>51</v>
@@ -9109,20 +9273,18 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -9171,7 +9333,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -9180,7 +9342,7 @@
         <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>63</v>
@@ -9192,10 +9354,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9209,10 +9371,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9235,15 +9397,17 @@
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -9292,7 +9456,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9301,7 +9465,7 @@
         <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>63</v>
@@ -9313,10 +9477,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9330,10 +9494,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9341,7 +9505,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>51</v>
@@ -9356,15 +9520,17 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>65</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -9389,13 +9555,13 @@
         <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9413,10 +9579,10 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>51</v>
@@ -9434,11 +9600,11 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
       </c>
@@ -9446,15 +9612,15 @@
         <v>40</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>458</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9465,7 +9631,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -9474,19 +9640,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9512,13 +9678,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>465</v>
+        <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9536,7 +9702,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9554,19 +9720,19 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>466</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>467</v>
+        <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>469</v>
+        <v>40</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9574,10 +9740,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9588,7 +9754,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -9597,23 +9763,21 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>40</v>
       </c>
@@ -9637,13 +9801,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>475</v>
+        <v>40</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9661,7 +9825,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9682,10 +9846,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>478</v>
+        <v>94</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9699,10 +9863,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9716,27 +9880,29 @@
         <v>38</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
       </c>
@@ -9760,13 +9926,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -9784,7 +9950,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9793,7 +9959,7 @@
         <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>63</v>
@@ -9802,19 +9968,19 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>40</v>
@@ -9822,10 +9988,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9839,7 +10005,7 @@
         <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>40</v>
@@ -9848,18 +10014,20 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>489</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>40</v>
       </c>
@@ -9883,13 +10051,13 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>469</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
@@ -9907,7 +10075,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9916,7 +10084,7 @@
         <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>471</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>63</v>
@@ -9925,19 +10093,19 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>493</v>
+        <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>494</v>
+        <v>94</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>496</v>
+        <v>40</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>40</v>
@@ -9945,14 +10113,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9971,19 +10139,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>498</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -10008,13 +10176,13 @@
         <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>40</v>
@@ -10032,7 +10200,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -10044,25 +10212,25 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>503</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>40</v>
@@ -10070,10 +10238,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10084,10 +10252,10 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>40</v>
@@ -10096,16 +10264,20 @@
         <v>40</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>125</v>
+        <v>487</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>40</v>
       </c>
@@ -10153,19 +10325,19 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>127</v>
+        <v>485</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -10174,10 +10346,10 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10191,21 +10363,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -10217,17 +10389,15 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -10276,19 +10446,19 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -10314,14 +10484,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>509</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10334,26 +10504,24 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>510</v>
+        <v>98</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="O64" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>40</v>
       </c>
@@ -10389,19 +10557,19 @@
         <v>40</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>134</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10425,7 +10593,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -10439,10 +10607,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10462,18 +10630,20 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10522,7 +10692,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10531,7 +10701,7 @@
         <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>63</v>
@@ -10543,10 +10713,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>518</v>
+        <v>94</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10560,10 +10730,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10583,16 +10753,16 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10643,7 +10813,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10652,7 +10822,7 @@
         <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>63</v>
@@ -10664,10 +10834,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>94</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10681,10 +10851,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10692,7 +10862,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>51</v>
@@ -10704,23 +10874,19 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>40</v>
       </c>
@@ -10744,13 +10910,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>530</v>
+        <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10768,10 +10934,10 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>51</v>
@@ -10786,13 +10952,13 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>531</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>532</v>
+        <v>94</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
@@ -10801,15 +10967,15 @@
         <v>40</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>40</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10820,7 +10986,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -10835,17 +11001,15 @@
         <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>40</v>
       </c>
@@ -10869,13 +11033,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10893,13 +11057,13 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>40</v>
@@ -10911,19 +11075,19 @@
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>523</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>40</v>
+        <v>524</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>40</v>
@@ -10931,10 +11095,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10945,7 +11109,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10957,17 +11121,19 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>541</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10992,13 +11158,13 @@
         <v>40</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>530</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>40</v>
+        <v>531</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>40</v>
@@ -11016,7 +11182,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -11037,10 +11203,10 @@
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>532</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -11054,10 +11220,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11068,7 +11234,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -11080,15 +11246,17 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>124</v>
+        <v>535</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -11137,7 +11305,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -11155,19 +11323,19 @@
         <v>40</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>40</v>
+        <v>539</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>40</v>
@@ -11175,10 +11343,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11198,19 +11366,19 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11260,13 +11428,13 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
@@ -11278,19 +11446,19 @@
         <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>548</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>40</v>
+        <v>551</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>40</v>
@@ -11298,10 +11466,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11321,21 +11489,23 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
@@ -11383,7 +11553,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11395,7 +11565,7 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -11404,10 +11574,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11421,10 +11591,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11432,35 +11602,31 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>564</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>565</v>
+        <v>125</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>40</v>
       </c>
@@ -11496,29 +11662,31 @@
         <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AC73" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>563</v>
+        <v>127</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11527,10 +11695,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>571</v>
+        <v>40</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>572</v>
+        <v>128</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11539,26 +11707,26 @@
         <v>40</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>573</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -11570,15 +11738,17 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11627,19 +11797,19 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>40</v>
@@ -11665,14 +11835,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>96</v>
+        <v>564</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11685,24 +11855,26 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>98</v>
+        <v>565</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>131</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -11750,7 +11922,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11774,7 +11946,7 @@
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11788,46 +11960,42 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>97</v>
+        <v>569</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>40</v>
       </c>
@@ -11875,19 +12043,19 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>572</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11896,10 +12064,10 @@
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>94</v>
+        <v>574</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11913,10 +12081,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11924,35 +12092,31 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>149</v>
+        <v>569</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>40</v>
       </c>
@@ -11976,13 +12140,13 @@
         <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>40</v>
@@ -12000,16 +12164,16 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>572</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>63</v>
@@ -12018,16 +12182,16 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>582</v>
+        <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>323</v>
+        <v>573</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>324</v>
+        <v>578</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>40</v>
@@ -12038,10 +12202,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12055,28 +12219,28 @@
         <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>401</v>
+        <v>583</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -12101,13 +12265,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>403</v>
+        <v>585</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -12125,7 +12289,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12134,7 +12298,7 @@
         <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>587</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>63</v>
@@ -12143,19 +12307,19 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>406</v>
+        <v>587</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>40</v>
@@ -12163,10 +12327,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12177,10 +12341,10 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>40</v>
@@ -12192,16 +12356,16 @@
         <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -12226,13 +12390,13 @@
         <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>154</v>
+        <v>518</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>414</v>
+        <v>593</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -12250,16 +12414,16 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>593</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>63</v>
@@ -12268,13 +12432,13 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>40</v>
+        <v>586</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>94</v>
+        <v>587</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12288,21 +12452,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -12314,19 +12478,17 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>149</v>
+        <v>596</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>420</v>
+        <v>597</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>423</v>
+        <v>599</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12351,13 +12513,13 @@
         <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
@@ -12375,13 +12537,13 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
@@ -12393,19 +12555,19 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>428</v>
+        <v>600</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>40</v>
@@ -12413,10 +12575,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12427,7 +12589,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -12439,20 +12601,16 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>40</v>
       </c>
@@ -12500,13 +12658,13 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
@@ -12521,10 +12679,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -12538,26 +12696,24 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>40</v>
@@ -12566,20 +12722,18 @@
         <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>606</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>40</v>
       </c>
@@ -12627,7 +12781,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12639,7 +12793,7 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>570</v>
+        <v>63</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>40</v>
@@ -12648,10 +12802,10 @@
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12665,10 +12819,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12679,7 +12833,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -12688,18 +12842,20 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>124</v>
+        <v>613</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>125</v>
+        <v>614</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>40</v>
@@ -12748,19 +12904,19 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>127</v>
+        <v>612</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>40</v>
@@ -12769,10 +12925,10 @@
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>40</v>
+        <v>610</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>128</v>
+        <v>617</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>40</v>
@@ -12786,44 +12942,46 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>38</v>
+        <v>619</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>97</v>
+        <v>553</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>98</v>
+        <v>620</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>131</v>
+        <v>621</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
       </c>
@@ -12859,19 +13017,17 @@
         <v>40</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>134</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12883,7 +13039,7 @@
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>625</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>40</v>
@@ -12892,10 +13048,10 @@
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>128</v>
+        <v>627</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>40</v>
@@ -12904,51 +13060,47 @@
         <v>40</v>
       </c>
       <c r="AQ84" t="s" s="2">
-        <v>40</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>40</v>
       </c>
@@ -12996,19 +13148,19 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>512</v>
+        <v>127</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
@@ -13020,7 +13172,7 @@
         <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
@@ -13034,46 +13186,44 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>605</v>
+        <v>98</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>579</v>
+        <v>131</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>40</v>
       </c>
@@ -13082,7 +13232,7 @@
         <v>40</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>606</v>
+        <v>40</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>40</v>
@@ -13097,13 +13247,13 @@
         <v>40</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -13121,34 +13271,34 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>577</v>
+        <v>134</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>40</v>
@@ -13159,45 +13309,45 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>40</v>
+        <v>564</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>608</v>
+        <v>97</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>586</v>
+        <v>100</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13222,13 +13372,13 @@
         <v>40</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13246,37 +13396,37 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>587</v>
+        <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>407</v>
+        <v>94</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>40</v>
@@ -13284,10 +13434,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13295,31 +13445,35 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>125</v>
+        <v>633</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
       </c>
@@ -13343,13 +13497,13 @@
         <v>40</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>40</v>
@@ -13367,10 +13521,10 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>127</v>
+        <v>632</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>51</v>
@@ -13379,22 +13533,22 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>40</v>
+        <v>637</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>40</v>
@@ -13405,44 +13559,46 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>97</v>
+        <v>452</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>98</v>
+        <v>639</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>131</v>
+        <v>640</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>40</v>
       </c>
@@ -13466,61 +13622,61 @@
         <v>40</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>134</v>
+        <v>638</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>40</v>
+        <v>642</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>40</v>
+        <v>643</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>128</v>
+        <v>462</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="AQ89" t="s" s="2">
         <v>40</v>
@@ -13528,10 +13684,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13539,7 +13695,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>51</v>
@@ -13551,22 +13707,22 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>615</v>
+        <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>619</v>
+        <v>468</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>40</v>
@@ -13591,13 +13747,13 @@
         <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>40</v>
+        <v>469</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>40</v>
@@ -13615,7 +13771,7 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -13624,7 +13780,7 @@
         <v>51</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>40</v>
+        <v>648</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>63</v>
@@ -13636,10 +13792,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>621</v>
+        <v>94</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>622</v>
+        <v>472</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -13653,50 +13809,50 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>627</v>
+        <v>478</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q91" t="s" s="2">
-        <v>628</v>
-      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
         <v>40</v>
       </c>
@@ -13716,13 +13872,13 @@
         <v>40</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>40</v>
@@ -13740,13 +13896,13 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>40</v>
@@ -13758,19 +13914,19 @@
         <v>40</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>632</v>
+        <v>482</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="AQ91" t="s" s="2">
         <v>40</v>
@@ -13778,10 +13934,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13789,32 +13945,34 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>638</v>
+        <v>557</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>40</v>
@@ -13863,13 +14021,13 @@
         <v>40</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>40</v>
@@ -13884,10 +14042,10 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>641</v>
+        <v>560</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>40</v>
@@ -13901,12 +14059,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="D93" t="s" s="2">
         <v>40</v>
       </c>
@@ -13927,24 +14087,26 @@
         <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>65</v>
+        <v>553</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>647</v>
+        <v>40</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>40</v>
@@ -13986,19 +14148,19 @@
         <v>40</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>649</v>
+        <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>63</v>
+        <v>625</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>40</v>
@@ -14007,10 +14169,10 @@
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>40</v>
@@ -14024,10 +14186,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14035,41 +14197,37 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>653</v>
+        <v>125</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>657</v>
+        <v>40</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>40</v>
@@ -14111,7 +14269,7 @@
         <v>40</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>658</v>
+        <v>127</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -14123,7 +14281,7 @@
         <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>40</v>
@@ -14132,10 +14290,10 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>659</v>
+        <v>128</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>40</v>
@@ -14149,24 +14307,24 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>40</v>
@@ -14175,20 +14333,18 @@
         <v>40</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>590</v>
+        <v>98</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>591</v>
+        <v>131</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>40</v>
       </c>
@@ -14212,13 +14368,13 @@
         <v>40</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>40</v>
@@ -14236,19 +14392,19 @@
         <v>40</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>589</v>
+        <v>134</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>593</v>
+        <v>40</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>40</v>
@@ -14257,10 +14413,10 @@
         <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>40</v>
@@ -14274,14 +14430,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>419</v>
+        <v>564</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14294,25 +14450,25 @@
         <v>40</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>420</v>
+        <v>565</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>421</v>
+        <v>566</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>422</v>
+        <v>100</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>423</v>
+        <v>106</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>40</v>
@@ -14337,13 +14493,13 @@
         <v>40</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>40</v>
@@ -14361,7 +14517,7 @@
         <v>40</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -14373,25 +14529,25 @@
         <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>428</v>
+        <v>94</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="AQ96" t="s" s="2">
         <v>40</v>
@@ -14399,10 +14555,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14410,34 +14566,34 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>501</v>
+        <v>635</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>502</v>
+        <v>636</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>40</v>
@@ -14447,7 +14603,7 @@
         <v>40</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>40</v>
+        <v>661</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>40</v>
@@ -14462,13 +14618,13 @@
         <v>40</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>40</v>
@@ -14486,13 +14642,13 @@
         <v>40</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>40</v>
@@ -14504,16 +14660,16 @@
         <v>40</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>40</v>
+        <v>637</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>504</v>
+        <v>323</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>505</v>
+        <v>324</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>40</v>
@@ -14524,20 +14680,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>51</v>
@@ -14552,19 +14706,19 @@
         <v>52</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>498</v>
+        <v>663</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>40</v>
@@ -14589,13 +14743,13 @@
         <v>40</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>40</v>
@@ -14613,37 +14767,37 @@
         <v>40</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>40</v>
+        <v>642</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>570</v>
+        <v>63</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>40</v>
+        <v>643</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>571</v>
+        <v>461</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>572</v>
+        <v>462</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="AQ98" t="s" s="2">
         <v>40</v>
@@ -14651,10 +14805,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>574</v>
+        <v>665</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14772,10 +14926,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14845,16 +14999,16 @@
         <v>40</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>134</v>
@@ -14898,42 +15052,42 @@
         <v>668</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>97</v>
+        <v>670</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>510</v>
+        <v>671</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>511</v>
+        <v>672</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>100</v>
+        <v>673</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>106</v>
+        <v>674</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>40</v>
@@ -14982,19 +15136,19 @@
         <v>40</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>512</v>
+        <v>675</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>40</v>
@@ -15003,10 +15157,10 @@
         <v>40</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>40</v>
+        <v>676</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>94</v>
+        <v>677</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>40</v>
@@ -15020,10 +15174,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>577</v>
+        <v>679</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15031,44 +15185,44 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>581</v>
+        <v>682</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>683</v>
+      </c>
       <c r="R102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>671</v>
+        <v>40</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>40</v>
@@ -15083,13 +15237,13 @@
         <v>40</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>319</v>
+        <v>684</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>320</v>
+        <v>685</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>40</v>
@@ -15107,10 +15261,10 @@
         <v>40</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>686</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>51</v>
@@ -15125,16 +15279,16 @@
         <v>40</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>582</v>
+        <v>40</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>323</v>
+        <v>687</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>324</v>
+        <v>688</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>40</v>
@@ -15145,10 +15299,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>583</v>
+        <v>690</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15156,7 +15310,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>51</v>
@@ -15171,19 +15325,17 @@
         <v>52</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>608</v>
+        <v>124</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>584</v>
+        <v>691</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>401</v>
+        <v>693</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>40</v>
@@ -15208,13 +15360,13 @@
         <v>40</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>40</v>
@@ -15232,7 +15384,7 @@
         <v>40</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
@@ -15241,7 +15393,7 @@
         <v>51</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>587</v>
+        <v>40</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>63</v>
@@ -15250,19 +15402,19 @@
         <v>40</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>406</v>
+        <v>695</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>407</v>
+        <v>696</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AQ103" t="s" s="2">
         <v>40</v>
@@ -15270,10 +15422,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>610</v>
+        <v>698</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15281,37 +15433,39 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>125</v>
+        <v>699</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>126</v>
+        <v>700</v>
       </c>
       <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>701</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>40</v>
+        <v>702</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>40</v>
@@ -15353,7 +15507,7 @@
         <v>40</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>127</v>
+        <v>703</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>38</v>
@@ -15362,10 +15516,10 @@
         <v>51</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>40</v>
+        <v>704</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>40</v>
@@ -15374,10 +15528,10 @@
         <v>40</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>40</v>
+        <v>695</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>128</v>
+        <v>705</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>40</v>
@@ -15391,50 +15545,52 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>707</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>98</v>
+        <v>708</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>131</v>
+        <v>709</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>40</v>
+        <v>712</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>40</v>
@@ -15464,31 +15620,31 @@
         <v>40</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>134</v>
+        <v>713</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>40</v>
@@ -15497,10 +15653,10 @@
         <v>40</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>40</v>
+        <v>695</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>128</v>
+        <v>714</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>40</v>
@@ -15514,10 +15670,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15525,7 +15681,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>51</v>
@@ -15537,22 +15693,22 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>615</v>
+        <v>149</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>619</v>
+        <v>468</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>40</v>
@@ -15577,13 +15733,13 @@
         <v>40</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>40</v>
+        <v>469</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>40</v>
@@ -15601,7 +15757,7 @@
         <v>40</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>38</v>
@@ -15610,7 +15766,7 @@
         <v>51</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>40</v>
+        <v>648</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>63</v>
@@ -15622,10 +15778,10 @@
         <v>40</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>621</v>
+        <v>94</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>622</v>
+        <v>472</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>40</v>
@@ -15639,50 +15795,50 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O107" t="s" s="2">
-        <v>627</v>
+        <v>478</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q107" t="s" s="2">
-        <v>628</v>
-      </c>
+      <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
         <v>40</v>
       </c>
@@ -15702,13 +15858,13 @@
         <v>40</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>40</v>
@@ -15726,13 +15882,13 @@
         <v>40</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>40</v>
@@ -15744,19 +15900,19 @@
         <v>40</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>632</v>
+        <v>482</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>40</v>
@@ -15764,10 +15920,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15775,32 +15931,34 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O108" t="s" s="2">
-        <v>638</v>
+        <v>557</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>40</v>
@@ -15849,13 +16007,13 @@
         <v>40</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>40</v>
@@ -15870,10 +16028,10 @@
         <v>40</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>641</v>
+        <v>560</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>40</v>
@@ -15887,12 +16045,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>719</v>
+      </c>
       <c r="D109" t="s" s="2">
         <v>40</v>
       </c>
@@ -15913,24 +16073,26 @@
         <v>52</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>65</v>
+        <v>553</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O109" t="s" s="2">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>647</v>
+        <v>40</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>40</v>
@@ -15972,19 +16134,19 @@
         <v>40</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>649</v>
+        <v>40</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>63</v>
+        <v>625</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>40</v>
@@ -15993,10 +16155,10 @@
         <v>40</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>40</v>
@@ -16010,10 +16172,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>679</v>
+        <v>721</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16021,41 +16183,37 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>653</v>
+        <v>125</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>657</v>
+        <v>40</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>40</v>
@@ -16097,7 +16255,7 @@
         <v>40</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>658</v>
+        <v>127</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>38</v>
@@ -16109,7 +16267,7 @@
         <v>40</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>40</v>
@@ -16118,10 +16276,10 @@
         <v>40</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>659</v>
+        <v>128</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>40</v>
@@ -16135,24 +16293,24 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>680</v>
+        <v>722</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>40</v>
@@ -16161,20 +16319,18 @@
         <v>40</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>590</v>
+        <v>98</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>591</v>
+        <v>131</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>40</v>
       </c>
@@ -16198,13 +16354,13 @@
         <v>40</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>40</v>
@@ -16222,19 +16378,19 @@
         <v>40</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>589</v>
+        <v>134</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>593</v>
+        <v>40</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>40</v>
@@ -16243,10 +16399,10 @@
         <v>40</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>40</v>
@@ -16260,14 +16416,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>681</v>
+        <v>723</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>419</v>
+        <v>564</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16280,25 +16436,25 @@
         <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>420</v>
+        <v>565</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>421</v>
+        <v>566</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>422</v>
+        <v>100</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>423</v>
+        <v>106</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>40</v>
@@ -16323,13 +16479,13 @@
         <v>40</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>40</v>
@@ -16347,7 +16503,7 @@
         <v>40</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>38</v>
@@ -16359,25 +16515,25 @@
         <v>40</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>428</v>
+        <v>94</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>40</v>
@@ -16385,10 +16541,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16396,34 +16552,34 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>596</v>
+        <v>725</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>501</v>
+        <v>635</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>502</v>
+        <v>636</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>40</v>
@@ -16433,7 +16589,7 @@
         <v>40</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>40</v>
+        <v>726</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>40</v>
@@ -16448,13 +16604,13 @@
         <v>40</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>40</v>
@@ -16472,13 +16628,13 @@
         <v>40</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>40</v>
@@ -16490,26 +16646,1391 @@
         <v>40</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>40</v>
+        <v>637</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>504</v>
+        <v>323</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>505</v>
+        <v>324</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ113" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AQ114" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ115" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ116" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ117" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q118" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ118" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ119" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ120" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ121" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ122" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP123" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AQ123" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ124" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ113">
+  <autoFilter ref="A1:AQ124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16519,7 +18040,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="774">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -868,7 +868,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -880,9 +880,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
@@ -901,7 +898,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>`final`</t>
+    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -5904,7 +5901,7 @@
         <v>84</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>84</v>
@@ -5923,7 +5920,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
@@ -5956,36 +5953,36 @@
         <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AR25" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -6011,16 +6008,16 @@
         <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
@@ -6048,16 +6045,16 @@
         <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -6067,7 +6064,7 @@
         <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -6091,30 +6088,30 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AR26" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>84</v>
@@ -6139,16 +6136,16 @@
         <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>84</v>
@@ -6176,11 +6173,11 @@
         <v>119</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>84</v>
       </c>
@@ -6197,7 +6194,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -6221,10 +6218,10 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>84</v>
@@ -6238,10 +6235,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6362,10 +6359,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6488,10 +6485,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6514,19 +6511,19 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -6575,7 +6572,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6596,10 +6593,10 @@
         <v>84</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>84</v>
@@ -6616,10 +6613,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6740,10 +6737,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6866,10 +6863,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6895,65 +6892,65 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6974,10 +6971,10 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>84</v>
@@ -6994,10 +6991,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -7023,13 +7020,13 @@
         <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -7079,7 +7076,7 @@
         <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -7100,10 +7097,10 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>84</v>
@@ -7120,10 +7117,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -7149,63 +7146,63 @@
         <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -7226,10 +7223,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -7246,10 +7243,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7275,14 +7272,14 @@
         <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
@@ -7331,7 +7328,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -7352,10 +7349,10 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>84</v>
@@ -7372,10 +7369,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7398,19 +7395,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -7459,7 +7456,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7480,10 +7477,10 @@
         <v>84</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>84</v>
@@ -7500,10 +7497,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7529,16 +7526,16 @@
         <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
@@ -7587,7 +7584,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7608,10 +7605,10 @@
         <v>84</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -7628,14 +7625,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7657,16 +7654,16 @@
         <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>84</v>
@@ -7676,7 +7673,7 @@
         <v>84</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>84</v>
@@ -7694,11 +7691,11 @@
         <v>212</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>84</v>
       </c>
@@ -7715,7 +7712,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>95</v>
@@ -7730,22 +7727,22 @@
         <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7756,10 +7753,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7880,10 +7877,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -8006,10 +8003,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8032,19 +8029,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -8093,7 +8090,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -8114,11 +8111,11 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN42" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
       </c>
@@ -8126,7 +8123,7 @@
         <v>84</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>84</v>
@@ -8134,10 +8131,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8163,16 +8160,16 @@
         <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -8221,7 +8218,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -8242,11 +8239,11 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN43" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AO43" t="s" s="2">
         <v>84</v>
       </c>
@@ -8254,18 +8251,18 @@
         <v>84</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8288,19 +8285,19 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -8349,7 +8346,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -8364,36 +8361,36 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AR44" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8416,16 +8413,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -8475,7 +8472,7 @@
         <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8496,13 +8493,13 @@
         <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>84</v>
@@ -8516,14 +8513,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8542,19 +8539,19 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
@@ -8603,7 +8600,7 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8618,19 +8615,19 @@
         <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>84</v>
@@ -8644,14 +8641,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8670,19 +8667,19 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
@@ -8719,17 +8716,17 @@
         <v>84</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8738,25 +8735,25 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>84</v>
@@ -8770,16 +8767,16 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="D48" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8798,19 +8795,19 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8859,7 +8856,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8868,42 +8865,42 @@
         <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AP48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8926,16 +8923,16 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8985,7 +8982,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -9006,13 +9003,13 @@
         <v>84</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
@@ -9026,10 +9023,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9052,17 +9049,17 @@
         <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -9111,7 +9108,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -9126,36 +9123,36 @@
         <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AP50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AR50" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9276,10 +9273,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9402,13 +9399,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>84</v>
@@ -9430,16 +9427,16 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -9522,18 +9519,18 @@
         <v>84</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9654,10 +9651,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9778,10 +9775,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9807,13 +9804,13 @@
         <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9821,49 +9818,49 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>95</v>
@@ -9904,10 +9901,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9930,13 +9927,13 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9987,7 +9984,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9996,7 +9993,7 @@
         <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>107</v>
@@ -10028,10 +10025,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10057,13 +10054,13 @@
         <v>182</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -10113,7 +10110,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -10122,7 +10119,7 @@
         <v>95</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>107</v>
@@ -10154,10 +10151,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10183,13 +10180,13 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10218,28 +10215,28 @@
         <v>212</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -10280,10 +10277,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10309,13 +10306,13 @@
         <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10365,7 +10362,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10389,7 +10386,7 @@
         <v>84</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>84</v>
@@ -10406,10 +10403,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10435,13 +10432,13 @@
         <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10491,7 +10488,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10532,10 +10529,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10558,19 +10555,19 @@
         <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -10598,11 +10595,11 @@
         <v>212</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>84</v>
       </c>
@@ -10619,7 +10616,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10628,7 +10625,7 @@
         <v>95</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>107</v>
@@ -10637,19 +10634,19 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>84</v>
@@ -10660,10 +10657,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10689,16 +10686,16 @@
         <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
@@ -10726,11 +10723,11 @@
         <v>212</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>84</v>
       </c>
@@ -10747,7 +10744,7 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10756,7 +10753,7 @@
         <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>107</v>
@@ -10771,7 +10768,7 @@
         <v>138</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>84</v>
@@ -10788,14 +10785,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10817,16 +10814,16 @@
         <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10854,11 +10851,11 @@
         <v>212</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>84</v>
       </c>
@@ -10875,7 +10872,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10893,19 +10890,19 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>84</v>
@@ -10916,10 +10913,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10942,19 +10939,19 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>84</v>
@@ -11003,7 +11000,7 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -11024,10 +11021,10 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
@@ -11044,10 +11041,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -11073,13 +11070,13 @@
         <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -11105,14 +11102,14 @@
         <v>84</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
       </c>
@@ -11129,7 +11126,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -11147,22 +11144,22 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
+      <c r="AQ66" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AR66" t="s" s="2">
         <v>84</v>
@@ -11170,10 +11167,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11199,16 +11196,16 @@
         <v>207</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -11233,14 +11230,14 @@
         <v>84</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>84</v>
       </c>
@@ -11257,7 +11254,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -11278,19 +11275,19 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AR67" t="s" s="2">
         <v>84</v>
@@ -11298,10 +11295,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11324,16 +11321,16 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -11383,7 +11380,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -11401,19 +11398,19 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>84</v>
@@ -11424,10 +11421,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11450,16 +11447,16 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11509,7 +11506,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11527,19 +11524,19 @@
         <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>84</v>
@@ -11550,10 +11547,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11576,19 +11573,19 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
@@ -11637,7 +11634,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11649,19 +11646,19 @@
         <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -11678,10 +11675,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11802,10 +11799,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11928,14 +11925,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11957,10 +11954,10 @@
         <v>140</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>164</v>
@@ -12015,7 +12012,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -12056,10 +12053,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -12082,13 +12079,13 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -12139,7 +12136,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -12148,7 +12145,7 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>107</v>
@@ -12160,10 +12157,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -12180,10 +12177,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12206,13 +12203,13 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -12263,7 +12260,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -12272,7 +12269,7 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>107</v>
@@ -12284,10 +12281,10 @@
         <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
@@ -12304,10 +12301,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12333,16 +12330,16 @@
         <v>207</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -12370,11 +12367,11 @@
         <v>119</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
       </c>
@@ -12391,7 +12388,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -12409,13 +12406,13 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AM76" t="s" s="2">
-        <v>623</v>
-      </c>
       <c r="AN76" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -12432,10 +12429,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12461,16 +12458,16 @@
         <v>207</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>84</v>
@@ -12495,14 +12492,14 @@
         <v>84</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>84</v>
       </c>
@@ -12519,7 +12516,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12537,13 +12534,13 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AM77" t="s" s="2">
-        <v>623</v>
-      </c>
       <c r="AN77" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
@@ -12560,10 +12557,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12586,17 +12583,17 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -12645,7 +12642,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12669,7 +12666,7 @@
         <v>84</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
@@ -12686,10 +12683,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12715,10 +12712,10 @@
         <v>182</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12769,7 +12766,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12790,10 +12787,10 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12810,10 +12807,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12836,16 +12833,16 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12895,7 +12892,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12916,10 +12913,10 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
@@ -12936,10 +12933,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12962,16 +12959,16 @@
         <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -13021,7 +13018,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -13042,10 +13039,10 @@
         <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -13062,10 +13059,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13073,7 +13070,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>83</v>
@@ -13088,19 +13085,19 @@
         <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -13137,7 +13134,7 @@
         <v>84</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -13147,7 +13144,7 @@
         <v>144</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -13159,19 +13156,19 @@
         <v>84</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -13188,10 +13185,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13312,10 +13309,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13438,14 +13435,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -13467,10 +13464,10 @@
         <v>140</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>164</v>
@@ -13525,7 +13522,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -13566,10 +13563,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13595,16 +13592,16 @@
         <v>207</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -13632,11 +13629,11 @@
         <v>212</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z86" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
       </c>
@@ -13653,7 +13650,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>95</v>
@@ -13671,22 +13668,22 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ86" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="AR86" t="s" s="2">
         <v>84</v>
@@ -13694,10 +13691,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13720,19 +13717,19 @@
         <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="O87" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -13760,11 +13757,11 @@
         <v>212</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>84</v>
       </c>
@@ -13781,7 +13778,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13790,7 +13787,7 @@
         <v>95</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>107</v>
@@ -13799,19 +13796,19 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP87" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>84</v>
@@ -13822,10 +13819,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13851,16 +13848,16 @@
         <v>207</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>683</v>
-      </c>
       <c r="O88" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13888,11 +13885,11 @@
         <v>212</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>84</v>
       </c>
@@ -13909,7 +13906,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13918,7 +13915,7 @@
         <v>95</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>107</v>
@@ -13933,7 +13930,7 @@
         <v>138</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13950,14 +13947,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13979,16 +13976,16 @@
         <v>207</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -14016,11 +14013,11 @@
         <v>212</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>84</v>
       </c>
@@ -14037,7 +14034,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -14055,19 +14052,19 @@
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP89" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AQ89" t="s" s="2">
         <v>84</v>
@@ -14078,10 +14075,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -14107,16 +14104,16 @@
         <v>85</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>688</v>
-      </c>
       <c r="N90" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>84</v>
@@ -14165,7 +14162,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -14186,10 +14183,10 @@
         <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
@@ -14206,13 +14203,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>84</v>
@@ -14234,19 +14231,19 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M91" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -14295,7 +14292,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -14307,20 +14304,20 @@
         <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="AK91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="AN91" t="s" s="2">
-        <v>663</v>
-      </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
       </c>
@@ -14328,18 +14325,18 @@
         <v>84</v>
       </c>
       <c r="AQ91" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AR91" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14460,10 +14457,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14586,14 +14583,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -14615,10 +14612,10 @@
         <v>140</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>164</v>
@@ -14673,7 +14670,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14714,10 +14711,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14743,16 +14740,16 @@
         <v>207</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -14762,7 +14759,7 @@
         <v>84</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>84</v>
@@ -14780,11 +14777,11 @@
         <v>212</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
       </c>
@@ -14801,7 +14798,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>95</v>
@@ -14819,16 +14816,16 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>84</v>
@@ -14842,10 +14839,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14868,19 +14865,19 @@
         <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N96" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="O96" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14908,11 +14905,11 @@
         <v>212</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Z96" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AA96" t="s" s="2">
         <v>84</v>
       </c>
@@ -14929,7 +14926,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14938,7 +14935,7 @@
         <v>95</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>107</v>
@@ -14947,19 +14944,19 @@
         <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AQ96" t="s" s="2">
         <v>84</v>
@@ -14970,10 +14967,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -15094,10 +15091,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15220,10 +15217,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -15246,19 +15243,19 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>84</v>
@@ -15307,7 +15304,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -15328,10 +15325,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -15348,10 +15345,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15377,20 +15374,20 @@
         <v>115</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q100" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q100" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>84</v>
@@ -15414,28 +15411,28 @@
         <v>200</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="Z100" t="s" s="2">
+      <c r="AA100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -15456,10 +15453,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -15476,10 +15473,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15505,14 +15502,14 @@
         <v>182</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>84</v>
@@ -15561,7 +15558,7 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15579,10 @@
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>84</v>
@@ -15602,10 +15599,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15631,63 +15628,63 @@
         <v>109</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -15696,7 +15693,7 @@
         <v>95</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>107</v>
@@ -15708,10 +15705,10 @@
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>84</v>
@@ -15728,10 +15725,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15757,65 +15754,65 @@
         <v>115</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF103" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -15836,10 +15833,10 @@
         <v>84</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>84</v>
@@ -15856,10 +15853,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15885,16 +15882,16 @@
         <v>207</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>683</v>
-      </c>
       <c r="O104" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>84</v>
@@ -15922,11 +15919,11 @@
         <v>212</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>84</v>
       </c>
@@ -15943,7 +15940,7 @@
         <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15952,7 +15949,7 @@
         <v>95</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>107</v>
@@ -15967,7 +15964,7 @@
         <v>138</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>84</v>
@@ -15984,14 +15981,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -16013,16 +16010,16 @@
         <v>207</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>84</v>
@@ -16050,11 +16047,11 @@
         <v>212</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>84</v>
       </c>
@@ -16071,7 +16068,7 @@
         <v>84</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>82</v>
@@ -16089,19 +16086,19 @@
         <v>84</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP105" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AQ105" t="s" s="2">
         <v>84</v>
@@ -16112,10 +16109,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16141,16 +16138,16 @@
         <v>85</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>688</v>
-      </c>
       <c r="N106" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O106" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>84</v>
@@ -16199,7 +16196,7 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>82</v>
@@ -16220,10 +16217,10 @@
         <v>84</v>
       </c>
       <c r="AM106" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>84</v>
@@ -16240,13 +16237,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>756</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>84</v>
@@ -16268,19 +16265,19 @@
         <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>84</v>
@@ -16329,7 +16326,7 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -16341,20 +16338,20 @@
         <v>84</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="AK107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="AN107" t="s" s="2">
-        <v>663</v>
-      </c>
       <c r="AO107" t="s" s="2">
         <v>84</v>
       </c>
@@ -16362,18 +16359,18 @@
         <v>84</v>
       </c>
       <c r="AQ107" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AR107" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16494,10 +16491,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16620,14 +16617,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -16649,10 +16646,10 @@
         <v>140</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>164</v>
@@ -16707,7 +16704,7 @@
         <v>84</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -16748,10 +16745,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16777,16 +16774,16 @@
         <v>207</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>84</v>
@@ -16796,7 +16793,7 @@
         <v>84</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>84</v>
@@ -16814,11 +16811,11 @@
         <v>212</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z111" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA111" t="s" s="2">
         <v>84</v>
       </c>
@@ -16835,7 +16832,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>95</v>
@@ -16853,16 +16850,16 @@
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AM111" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>84</v>
@@ -16876,10 +16873,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16902,19 +16899,19 @@
         <v>96</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="O112" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>84</v>
@@ -16942,11 +16939,11 @@
         <v>212</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Z112" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AA112" t="s" s="2">
         <v>84</v>
       </c>
@@ -16963,7 +16960,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -16972,7 +16969,7 @@
         <v>95</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>107</v>
@@ -16981,19 +16978,19 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AN112" t="s" s="2">
+      <c r="AO112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>84</v>
@@ -17004,10 +17001,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -17128,10 +17125,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17254,10 +17251,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -17280,19 +17277,19 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>84</v>
@@ -17341,7 +17338,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -17362,10 +17359,10 @@
         <v>84</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>84</v>
@@ -17382,10 +17379,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17411,20 +17408,20 @@
         <v>115</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q116" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q116" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>84</v>
@@ -17448,28 +17445,28 @@
         <v>200</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="Z116" t="s" s="2">
+      <c r="AA116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF116" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -17490,10 +17487,10 @@
         <v>84</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AN116" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>84</v>
@@ -17510,10 +17507,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17539,14 +17536,14 @@
         <v>182</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>84</v>
@@ -17595,7 +17592,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -17616,10 +17613,10 @@
         <v>84</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>84</v>
@@ -17636,10 +17633,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17665,63 +17662,63 @@
         <v>109</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF118" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -17730,7 +17727,7 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>107</v>
@@ -17742,10 +17739,10 @@
         <v>84</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
@@ -17762,10 +17759,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17791,65 +17788,65 @@
         <v>115</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF119" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -17870,10 +17867,10 @@
         <v>84</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>84</v>
@@ -17890,10 +17887,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17919,16 +17916,16 @@
         <v>207</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N120" t="s" s="2">
-        <v>683</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -17956,11 +17953,11 @@
         <v>212</v>
       </c>
       <c r="Y120" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z120" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z120" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
       </c>
@@ -17977,7 +17974,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -17986,7 +17983,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -18001,7 +17998,7 @@
         <v>138</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
@@ -18018,14 +18015,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -18047,16 +18044,16 @@
         <v>207</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
@@ -18084,11 +18081,11 @@
         <v>212</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z121" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>84</v>
       </c>
@@ -18105,7 +18102,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -18123,19 +18120,19 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN121" t="s" s="2">
+      <c r="AO121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP121" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AQ121" t="s" s="2">
         <v>84</v>
@@ -18146,10 +18143,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18175,16 +18172,16 @@
         <v>85</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M122" t="s" s="2">
-        <v>688</v>
-      </c>
       <c r="N122" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O122" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
@@ -18233,7 +18230,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -18254,10 +18251,10 @@
         <v>84</v>
       </c>
       <c r="AM122" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -253,12 +259,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t>Vital Signs
@@ -288,6 +288,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
+    <t>VitalSignTO BP</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -298,9 +301,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>VitalSignTO BP</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -513,6 +513,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {VitalSignTO.type.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -523,9 +526,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>Observation.identifier:TOid</t>
@@ -838,6 +838,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
+    <t>`final` if not `entered-in-error`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -851,9 +854,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -881,13 +881,13 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>`vital-signs`</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`vital-signs`</t>
   </si>
   <si>
     <t>Observation.category:VSCat</t>
@@ -1202,6 +1202,9 @@
     <t>Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1212,9 +1215,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -1371,6 +1371,9 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>VitalSignTO.recorder and VitalSignTO.observer</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1381,9 +1384,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>VitalSignTO.recorder and VitalSignTO.observer</t>
   </si>
   <si>
     <t>Observation.performer.id</t>
@@ -2767,14 +2767,14 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="54.296875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="54.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="54.296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3016,25 +3016,25 @@
         <v>89</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AO2" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AP2" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3650,13 +3650,13 @@
         <v>84</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ7" t="s" s="2">
         <v>84</v>
@@ -3776,13 +3776,13 @@
         <v>84</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ8" t="s" s="2">
         <v>84</v>
@@ -3902,13 +3902,13 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ9" t="s" s="2">
         <v>84</v>
@@ -4030,13 +4030,13 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>84</v>
@@ -4148,25 +4148,25 @@
         <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AR11" t="s" s="2">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -4273,7 +4273,7 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>84</v>
@@ -4282,16 +4282,16 @@
         <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ12" t="s" s="2">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>84</v>
@@ -4406,13 +4406,13 @@
         <v>84</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>84</v>
@@ -4532,13 +4532,13 @@
         <v>84</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>84</v>
@@ -4657,16 +4657,16 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>84</v>
@@ -4785,16 +4785,16 @@
         <v>84</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>84</v>
@@ -4913,16 +4913,16 @@
         <v>84</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>84</v>
@@ -5039,16 +5039,16 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>84</v>
@@ -5163,16 +5163,16 @@
         <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>84</v>
@@ -5289,16 +5289,16 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>84</v>
@@ -5409,22 +5409,22 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>84</v>
@@ -5535,22 +5535,22 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>84</v>
@@ -5664,25 +5664,25 @@
         <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>269</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5787,28 +5787,28 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AO24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5926,16 +5926,16 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AO25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ25" t="s" s="2">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="AR25" t="s" s="2">
         <v>84</v>
@@ -6050,13 +6050,13 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>84</v>
@@ -6176,13 +6176,13 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>84</v>
@@ -6301,16 +6301,16 @@
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>84</v>
@@ -6428,13 +6428,13 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>84</v>
@@ -6554,13 +6554,13 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>84</v>
@@ -6679,16 +6679,16 @@
         <v>84</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>84</v>
@@ -6805,16 +6805,16 @@
         <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>84</v>
@@ -6931,16 +6931,16 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>84</v>
@@ -7057,16 +7057,16 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>84</v>
@@ -7185,16 +7185,16 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>84</v>
@@ -7313,16 +7313,16 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>84</v>
@@ -7435,28 +7435,28 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -7568,13 +7568,13 @@
         <v>84</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>84</v>
@@ -7694,13 +7694,13 @@
         <v>84</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7813,25 +7813,25 @@
         <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ40" t="s" s="2">
-        <v>373</v>
+        <v>84</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>84</v>
@@ -7941,28 +7941,28 @@
         <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AO41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ41" t="s" s="2">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>375</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -8072,25 +8072,25 @@
         <v>382</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>386</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -8201,19 +8201,19 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AO43" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ43" t="s" s="2">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>84</v>
@@ -8323,25 +8323,25 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AQ44" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR44" t="s" s="2">
         <v>84</v>
@@ -8449,25 +8449,25 @@
         <v>414</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AP45" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AO45" t="s" s="2">
+      <c r="AQ45" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR45" t="s" s="2">
         <v>84</v>
@@ -8579,28 +8579,28 @@
         <v>414</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AP46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AR46" t="s" s="2">
-        <v>421</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -8711,19 +8711,19 @@
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AO47" t="s" s="2">
+      <c r="AQ47" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>84</v>
@@ -8834,25 +8834,25 @@
         <v>435</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>436</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AO48" t="s" s="2">
+      <c r="AP48" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>439</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>439</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -8964,13 +8964,13 @@
         <v>84</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>84</v>
@@ -9090,13 +9090,13 @@
         <v>84</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>84</v>
@@ -9209,10 +9209,10 @@
         <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>84</v>
@@ -9227,10 +9227,10 @@
         <v>84</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>448</v>
+        <v>84</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>448</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -9342,13 +9342,13 @@
         <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>84</v>
@@ -9592,13 +9592,13 @@
         <v>84</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>84</v>
@@ -9716,13 +9716,13 @@
         <v>84</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>84</v>
@@ -9842,13 +9842,13 @@
         <v>84</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP56" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>84</v>
@@ -9968,13 +9968,13 @@
         <v>84</v>
       </c>
       <c r="AN57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>84</v>
@@ -10094,13 +10094,13 @@
         <v>84</v>
       </c>
       <c r="AN58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>84</v>
@@ -10220,13 +10220,13 @@
         <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>84</v>
@@ -10342,25 +10342,25 @@
         <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AP60" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AO60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP60" t="s" s="2">
+      <c r="AQ60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR60" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -10473,16 +10473,16 @@
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AP61" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>84</v>
@@ -10598,25 +10598,25 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AP62" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AO62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP62" t="s" s="2">
+      <c r="AQ62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR62" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR62" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -10729,16 +10729,16 @@
         <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AP63" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>84</v>
@@ -10852,25 +10852,25 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -10983,16 +10983,16 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AP65" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>84</v>
@@ -11106,25 +11106,25 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AP66" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
+      <c r="AQ66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -11232,25 +11232,25 @@
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AP67" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
+      <c r="AQ67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR67" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR67" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -11363,16 +11363,16 @@
         <v>84</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AP68" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>84</v>
@@ -11490,13 +11490,13 @@
         <v>84</v>
       </c>
       <c r="AN69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>84</v>
@@ -11616,13 +11616,13 @@
         <v>84</v>
       </c>
       <c r="AN70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>84</v>
@@ -11744,13 +11744,13 @@
         <v>84</v>
       </c>
       <c r="AN71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>84</v>
@@ -11865,16 +11865,16 @@
         <v>84</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AP72" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ72" t="s" s="2">
         <v>84</v>
@@ -11989,16 +11989,16 @@
         <v>84</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AP73" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ73" t="s" s="2">
         <v>84</v>
@@ -12114,19 +12114,19 @@
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AP74" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ74" t="s" s="2">
         <v>84</v>
@@ -12242,19 +12242,19 @@
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AP75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ75" t="s" s="2">
         <v>84</v>
@@ -12374,13 +12374,13 @@
         <v>84</v>
       </c>
       <c r="AN76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ76" t="s" s="2">
         <v>84</v>
@@ -12495,16 +12495,16 @@
         <v>84</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AP77" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>84</v>
@@ -12621,16 +12621,16 @@
         <v>84</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AP78" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>84</v>
@@ -12747,16 +12747,16 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AP79" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>84</v>
@@ -12873,16 +12873,16 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AP80" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>84</v>
@@ -13000,13 +13000,13 @@
         <v>84</v>
       </c>
       <c r="AN81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ81" t="s" s="2">
         <v>84</v>
@@ -13126,13 +13126,13 @@
         <v>84</v>
       </c>
       <c r="AN82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ82" t="s" s="2">
         <v>84</v>
@@ -13254,13 +13254,13 @@
         <v>84</v>
       </c>
       <c r="AN83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ83" t="s" s="2">
         <v>84</v>
@@ -13376,22 +13376,22 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AP84" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AO84" t="s" s="2">
+      <c r="AQ84" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ84" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR84" t="s" s="2">
         <v>84</v>
@@ -13504,25 +13504,25 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AP85" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AO85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP85" t="s" s="2">
+      <c r="AQ85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR85" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AQ85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR85" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -13635,16 +13635,16 @@
         <v>84</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AP86" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ86" t="s" s="2">
         <v>84</v>
@@ -13760,25 +13760,25 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AP87" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AO87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP87" t="s" s="2">
+      <c r="AQ87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR87" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AQ87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR87" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -13891,16 +13891,16 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>84</v>
@@ -14015,28 +14015,28 @@
         <v>647</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AP89" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="AO89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ89" t="s" s="2">
-        <v>677</v>
+        <v>84</v>
       </c>
       <c r="AR89" t="s" s="2">
-        <v>677</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -14148,13 +14148,13 @@
         <v>84</v>
       </c>
       <c r="AN90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ90" t="s" s="2">
         <v>84</v>
@@ -14274,13 +14274,13 @@
         <v>84</v>
       </c>
       <c r="AN91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ91" t="s" s="2">
         <v>84</v>
@@ -14402,13 +14402,13 @@
         <v>84</v>
       </c>
       <c r="AN92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ92" t="s" s="2">
         <v>84</v>
@@ -14524,22 +14524,22 @@
         <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AP93" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AO93" t="s" s="2">
+      <c r="AQ93" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ93" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR93" t="s" s="2">
         <v>84</v>
@@ -14652,25 +14652,25 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AP94" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AO94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP94" t="s" s="2">
+      <c r="AQ94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR94" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AQ94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR94" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="95" hidden="true">
@@ -14782,13 +14782,13 @@
         <v>84</v>
       </c>
       <c r="AN95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ95" t="s" s="2">
         <v>84</v>
@@ -14908,13 +14908,13 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ96" t="s" s="2">
         <v>84</v>
@@ -15033,16 +15033,16 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AP97" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ97" t="s" s="2">
         <v>84</v>
@@ -15161,16 +15161,16 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="AN98" t="s" s="2">
+      <c r="AP98" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ98" t="s" s="2">
         <v>84</v>
@@ -15287,16 +15287,16 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AP99" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ99" t="s" s="2">
         <v>84</v>
@@ -15413,16 +15413,16 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AP100" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ100" t="s" s="2">
         <v>84</v>
@@ -15541,16 +15541,16 @@
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AP101" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ101" t="s" s="2">
         <v>84</v>
@@ -15669,16 +15669,16 @@
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AP102" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>84</v>
@@ -15794,25 +15794,25 @@
         <v>84</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AO103" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN103" t="s" s="2">
+      <c r="AP103" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AO103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP103" t="s" s="2">
+      <c r="AQ103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR103" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AQ103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR103" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="104" hidden="true">
@@ -15925,16 +15925,16 @@
         <v>84</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AP104" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ104" t="s" s="2">
         <v>84</v>
@@ -16049,28 +16049,28 @@
         <v>647</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AP105" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="AO105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ105" t="s" s="2">
-        <v>677</v>
+        <v>84</v>
       </c>
       <c r="AR105" t="s" s="2">
-        <v>677</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -16182,13 +16182,13 @@
         <v>84</v>
       </c>
       <c r="AN106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ106" t="s" s="2">
         <v>84</v>
@@ -16308,13 +16308,13 @@
         <v>84</v>
       </c>
       <c r="AN107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>84</v>
@@ -16436,13 +16436,13 @@
         <v>84</v>
       </c>
       <c r="AN108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ108" t="s" s="2">
         <v>84</v>
@@ -16558,22 +16558,22 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AP109" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AO109" t="s" s="2">
+      <c r="AQ109" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ109" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR109" t="s" s="2">
         <v>84</v>
@@ -16686,25 +16686,25 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AO110" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN110" t="s" s="2">
+      <c r="AP110" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AO110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP110" t="s" s="2">
+      <c r="AQ110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR110" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AQ110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR110" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="111" hidden="true">
@@ -16816,13 +16816,13 @@
         <v>84</v>
       </c>
       <c r="AN111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ111" t="s" s="2">
         <v>84</v>
@@ -16942,13 +16942,13 @@
         <v>84</v>
       </c>
       <c r="AN112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>84</v>
@@ -17067,16 +17067,16 @@
         <v>84</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AP113" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ113" t="s" s="2">
         <v>84</v>
@@ -17195,16 +17195,16 @@
         <v>84</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO114" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AP114" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>84</v>
@@ -17321,16 +17321,16 @@
         <v>84</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO115" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="AN115" t="s" s="2">
+      <c r="AP115" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ115" t="s" s="2">
         <v>84</v>
@@ -17447,16 +17447,16 @@
         <v>84</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO116" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AP116" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ116" t="s" s="2">
         <v>84</v>
@@ -17575,16 +17575,16 @@
         <v>84</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AP117" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ117" t="s" s="2">
         <v>84</v>
@@ -17703,16 +17703,16 @@
         <v>84</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN118" t="s" s="2">
+      <c r="AP118" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ118" t="s" s="2">
         <v>84</v>
@@ -17828,25 +17828,25 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM119" t="s" s="2">
+      <c r="AO119" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN119" t="s" s="2">
+      <c r="AP119" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AO119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP119" t="s" s="2">
+      <c r="AQ119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR119" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AQ119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR119" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="120" hidden="true">
@@ -17959,16 +17959,16 @@
         <v>84</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AP120" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ120" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
